--- a/Software/Archive/TestingTrigLookupTable/TrigLookupTable.xlsx
+++ b/Software/Archive/TestingTrigLookupTable/TrigLookupTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Degrees</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>round(SinVal(float)*Scaler)</t>
+  </si>
+  <si>
+    <t>Size of int_32_unsigned: 2147483648</t>
   </si>
 </sst>
 </file>
@@ -90,10 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,12 +403,13 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="14.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.109375" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
@@ -421,12 +427,11 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <f>2^32</f>
-        <v>4294967296</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="G2">
         <v>65536</v>
       </c>
@@ -476,11 +481,11 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>B5*$G$2</f>
+        <f t="shared" ref="F5:F36" si="0">B5*$G$2</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H36" si="0">ROUND(F5,0)</f>
+        <f t="shared" ref="H5:H36" si="1">ROUND(F5,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -493,15 +498,15 @@
         <v>1.7452406437283512E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C69" si="1">ROUND(B6*$C$3,0)</f>
+        <f t="shared" ref="C6:C69" si="2">ROUND(B6*$C$3,0)</f>
         <v>17</v>
       </c>
       <c r="F6">
-        <f>B6*$G$2</f>
+        <f t="shared" si="0"/>
         <v>1143.7609082738122</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1144</v>
       </c>
     </row>
@@ -514,15 +519,15 @@
         <v>3.4899496702500969E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="F7">
-        <f>B7*$G$2</f>
+        <f t="shared" si="0"/>
         <v>2287.1734158951035</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2287</v>
       </c>
     </row>
@@ -535,15 +540,15 @@
         <v>5.2335956242943835E-2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F8">
-        <f>B8*$G$2</f>
+        <f t="shared" si="0"/>
         <v>3429.8892283375671</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3430</v>
       </c>
     </row>
@@ -552,19 +557,19 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B72" si="2">SIN(RADIANS(A9))</f>
+        <f t="shared" ref="B9:B72" si="3">SIN(RADIANS(A9))</f>
         <v>6.9756473744125302E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F9">
-        <f>B9*$G$2</f>
+        <f t="shared" si="0"/>
         <v>4571.5602632949958</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4572</v>
       </c>
     </row>
@@ -573,19 +578,19 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="F10">
-        <f>B10*$G$2</f>
+        <f t="shared" si="0"/>
         <v>5711.8387567105256</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5712</v>
       </c>
     </row>
@@ -594,19 +599,19 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10452846326765347</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="F11">
-        <f>B11*$G$2</f>
+        <f t="shared" si="0"/>
         <v>6850.3773687089379</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6850</v>
       </c>
     </row>
@@ -615,19 +620,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12186934340514748</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="F12">
-        <f>B12*$G$2</f>
+        <f t="shared" si="0"/>
         <v>7986.829289399745</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7987</v>
       </c>
     </row>
@@ -636,19 +641,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13917310096006544</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="F13">
-        <f>B13*$G$2</f>
+        <f t="shared" si="0"/>
         <v>9120.8483445188485</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9121</v>
       </c>
     </row>
@@ -657,19 +662,19 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15643446504023087</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="F14">
-        <f>B14*$G$2</f>
+        <f t="shared" si="0"/>
         <v>10252.08910087657</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10252</v>
       </c>
     </row>
@@ -678,19 +683,19 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="F15">
-        <f>B15*$G$2</f>
+        <f t="shared" si="0"/>
         <v>11380.206971579946</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11380</v>
       </c>
     </row>
@@ -699,19 +704,19 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1908089953765448</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="F16">
-        <f>B16*$G$2</f>
+        <f t="shared" si="0"/>
         <v>12504.85832099724</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12505</v>
       </c>
     </row>
@@ -720,19 +725,19 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20791169081775934</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="F17">
-        <f>B17*$G$2</f>
+        <f t="shared" si="0"/>
         <v>13625.700569432676</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13626</v>
       </c>
     </row>
@@ -741,19 +746,19 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.224951054343865</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="F18">
-        <f>B18*$G$2</f>
+        <f t="shared" si="0"/>
         <v>14742.392297479537</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14742</v>
       </c>
     </row>
@@ -762,19 +767,19 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24192189559966773</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="F19">
-        <f>B19*$G$2</f>
+        <f t="shared" si="0"/>
         <v>15854.593350019824</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15855</v>
       </c>
     </row>
@@ -783,19 +788,19 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25881904510252074</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
       <c r="F20">
-        <f>B20*$G$2</f>
+        <f t="shared" si="0"/>
         <v>16961.964939838799</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16962</v>
       </c>
     </row>
@@ -804,19 +809,19 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27563735581699916</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>276</v>
       </c>
       <c r="F21">
-        <f>B21*$G$2</f>
+        <f t="shared" si="0"/>
         <v>18064.169750822857</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18064</v>
       </c>
     </row>
@@ -825,19 +830,19 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29237170472273677</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="F22">
-        <f>B22*$G$2</f>
+        <f t="shared" si="0"/>
         <v>19160.872040709277</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19161</v>
       </c>
     </row>
@@ -846,19 +851,19 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3090169943749474</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="F23">
-        <f>B23*$G$2</f>
+        <f t="shared" si="0"/>
         <v>20251.737743356553</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20252</v>
       </c>
     </row>
@@ -867,19 +872,19 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3255681544571567</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>326</v>
       </c>
       <c r="F24">
-        <f>B24*$G$2</f>
+        <f t="shared" si="0"/>
         <v>21336.434570504221</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21336</v>
       </c>
     </row>
@@ -888,19 +893,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="F25">
-        <f>B25*$G$2</f>
+        <f t="shared" si="0"/>
         <v>22414.632112991025</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22415</v>
       </c>
     </row>
@@ -909,19 +914,19 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35836794954530027</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>358</v>
       </c>
       <c r="F26">
-        <f>B26*$G$2</f>
+        <f t="shared" si="0"/>
         <v>23486.001941400798</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23486</v>
       </c>
     </row>
@@ -930,19 +935,19 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37460659341591201</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375</v>
       </c>
       <c r="F27">
-        <f>B27*$G$2</f>
+        <f t="shared" si="0"/>
         <v>24550.21770610521</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24550</v>
       </c>
     </row>
@@ -951,19 +956,19 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39073112848927377</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>391</v>
       </c>
       <c r="F28">
-        <f>B28*$G$2</f>
+        <f t="shared" si="0"/>
         <v>25606.955236673046</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25607</v>
       </c>
     </row>
@@ -972,19 +977,19 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40673664307580021</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>407</v>
       </c>
       <c r="F29">
-        <f>B29*$G$2</f>
+        <f t="shared" si="0"/>
         <v>26655.892640615642</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26656</v>
       </c>
     </row>
@@ -993,19 +998,19 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42261826174069944</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
       <c r="F30">
-        <f>B30*$G$2</f>
+        <f t="shared" si="0"/>
         <v>27696.710401438479</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27697</v>
       </c>
     </row>
@@ -1014,19 +1019,19 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4383711467890774</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
       <c r="F31">
-        <f>B31*$G$2</f>
+        <f t="shared" si="0"/>
         <v>28729.091475968977</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28729</v>
       </c>
     </row>
@@ -1035,19 +1040,19 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45399049973954675</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="F32">
-        <f>B32*$G$2</f>
+        <f t="shared" si="0"/>
         <v>29752.721390930936</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29753</v>
       </c>
     </row>
@@ -1056,19 +1061,19 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46947156278589081</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>469</v>
       </c>
       <c r="F33">
-        <f>B33*$G$2</f>
+        <f t="shared" si="0"/>
         <v>30767.28833873614</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30767</v>
       </c>
     </row>
@@ -1077,19 +1082,19 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48480962024633706</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="F34">
-        <f>B34*$G$2</f>
+        <f t="shared" si="0"/>
         <v>31772.483272463945</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31772</v>
       </c>
     </row>
@@ -1098,19 +1103,19 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="F35">
-        <f>B35*$G$2</f>
+        <f t="shared" si="0"/>
         <v>32767.999999999996</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
     </row>
@@ -1119,19 +1124,19 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51503807491005416</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
       <c r="F36">
-        <f>B36*$G$2</f>
+        <f t="shared" si="0"/>
         <v>33753.535277305309</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33754</v>
       </c>
     </row>
@@ -1140,19 +1145,19 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5299192642332049</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
       <c r="F37">
-        <f>B37*$G$2</f>
+        <f t="shared" ref="F37:F68" si="4">B37*$G$2</f>
         <v>34728.788900787316</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H68" si="3">ROUND(F37,0)</f>
+        <f t="shared" ref="H37:H68" si="5">ROUND(F37,0)</f>
         <v>34729</v>
       </c>
     </row>
@@ -1161,19 +1166,19 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54463903501502708</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>545</v>
       </c>
       <c r="F38">
-        <f>B38*$G$2</f>
+        <f t="shared" si="4"/>
         <v>35693.463798744815</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35693</v>
       </c>
     </row>
@@ -1182,19 +1187,19 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5591929034707469</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>559</v>
       </c>
       <c r="F39">
-        <f>B39*$G$2</f>
+        <f t="shared" si="4"/>
         <v>36647.266121858869</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36647</v>
       </c>
     </row>
@@ -1203,19 +1208,19 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57357643635104605</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>574</v>
       </c>
       <c r="F40">
-        <f>B40*$G$2</f>
+        <f t="shared" si="4"/>
         <v>37589.905332702154</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37590</v>
       </c>
     </row>
@@ -1224,19 +1229,19 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58778525229247314</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>588</v>
       </c>
       <c r="F41">
-        <f>B41*$G$2</f>
+        <f t="shared" si="4"/>
         <v>38521.09429423952</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38521</v>
       </c>
     </row>
@@ -1245,19 +1250,19 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60181502315204827</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>602</v>
       </c>
       <c r="F42">
-        <f>B42*$G$2</f>
+        <f t="shared" si="4"/>
         <v>39440.549357292635</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39441</v>
       </c>
     </row>
@@ -1266,19 +1271,19 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61566147532565829</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>616</v>
       </c>
       <c r="F43">
-        <f>B43*$G$2</f>
+        <f t="shared" si="4"/>
         <v>40347.990446942342</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40348</v>
       </c>
     </row>
@@ -1287,19 +1292,19 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62932039104983739</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>629</v>
       </c>
       <c r="F44">
-        <f>B44*$G$2</f>
+        <f t="shared" si="4"/>
         <v>41243.141147842143</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41243</v>
       </c>
     </row>
@@ -1308,19 +1313,19 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643</v>
       </c>
       <c r="F45">
-        <f>B45*$G$2</f>
+        <f t="shared" si="4"/>
         <v>42125.728788417036</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42126</v>
       </c>
     </row>
@@ -1329,19 +1334,19 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65605902899050728</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>656</v>
       </c>
       <c r="F46">
-        <f>B46*$G$2</f>
+        <f t="shared" si="4"/>
         <v>42995.484523921885</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42995</v>
       </c>
     </row>
@@ -1350,19 +1355,19 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66913060635885824</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>669</v>
       </c>
       <c r="F47">
-        <f>B47*$G$2</f>
+        <f t="shared" si="4"/>
         <v>43852.143418334133</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43852</v>
       </c>
     </row>
@@ -1371,19 +1376,19 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68199836006249848</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>682</v>
       </c>
       <c r="F48">
-        <f>B48*$G$2</f>
+        <f t="shared" si="4"/>
         <v>44695.4445250559</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44695</v>
       </c>
     </row>
@@ -1392,19 +1397,19 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69465837045899725</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>695</v>
       </c>
       <c r="F49">
-        <f>B49*$G$2</f>
+        <f t="shared" si="4"/>
         <v>45525.130966400844</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45525</v>
       </c>
     </row>
@@ -1413,19 +1418,19 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>707</v>
       </c>
       <c r="F50">
-        <f>B50*$G$2</f>
+        <f t="shared" si="4"/>
         <v>46340.950011841574</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46341</v>
       </c>
     </row>
@@ -1434,19 +1439,19 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71933980033865108</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>719</v>
       </c>
       <c r="F51">
-        <f>B51*$G$2</f>
+        <f t="shared" si="4"/>
         <v>47142.653154993837</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47143</v>
       </c>
     </row>
@@ -1455,19 +1460,19 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73135370161917046</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>731</v>
       </c>
       <c r="F52">
-        <f>B52*$G$2</f>
+        <f t="shared" si="4"/>
         <v>47929.996189313955</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47930</v>
       </c>
     </row>
@@ -1476,19 +1481,19 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74314482547739424</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>743</v>
       </c>
       <c r="F53">
-        <f>B53*$G$2</f>
+        <f t="shared" si="4"/>
         <v>48702.739282486509</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48703</v>
       </c>
     </row>
@@ -1497,19 +1502,19 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75470958022277201</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>755</v>
       </c>
       <c r="F54">
-        <f>B54*$G$2</f>
+        <f t="shared" si="4"/>
         <v>49460.647049479587</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49461</v>
       </c>
     </row>
@@ -1518,19 +1523,19 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>766</v>
       </c>
       <c r="F55">
-        <f>B55*$G$2</f>
+        <f t="shared" si="4"/>
         <v>50203.488624245343</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50203</v>
       </c>
     </row>
@@ -1539,19 +1544,19 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7771459614569709</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>777</v>
       </c>
       <c r="F56">
-        <f>B56*$G$2</f>
+        <f t="shared" si="4"/>
         <v>50931.037730044045</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50931</v>
       </c>
     </row>
@@ -1560,19 +1565,19 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78801075360672201</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>788</v>
       </c>
       <c r="F57">
-        <f>B57*$G$2</f>
+        <f t="shared" si="4"/>
         <v>51643.072748370134</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51643</v>
       </c>
     </row>
@@ -1581,19 +1586,19 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79863551004729283</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>799</v>
       </c>
       <c r="F58">
-        <f>B58*$G$2</f>
+        <f t="shared" si="4"/>
         <v>52339.376786459383</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52339</v>
       </c>
     </row>
@@ -1602,19 +1607,19 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>809</v>
       </c>
       <c r="F59">
-        <f>B59*$G$2</f>
+        <f t="shared" si="4"/>
         <v>53019.737743356556</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53020</v>
       </c>
     </row>
@@ -1623,19 +1628,19 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8191520442889918</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>819</v>
       </c>
       <c r="F60">
-        <f>B60*$G$2</f>
+        <f t="shared" si="4"/>
         <v>53683.948374523367</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53684</v>
       </c>
     </row>
@@ -1644,19 +1649,19 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82903757255504174</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>829</v>
       </c>
       <c r="F61">
-        <f>B61*$G$2</f>
+        <f t="shared" si="4"/>
         <v>54331.806354967215</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54332</v>
       </c>
     </row>
@@ -1665,19 +1670,19 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83867056794542405</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>839</v>
       </c>
       <c r="F62">
-        <f>B62*$G$2</f>
+        <f t="shared" si="4"/>
         <v>54963.114340871311</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54963</v>
       </c>
     </row>
@@ -1686,19 +1691,19 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84804809615642596</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>848</v>
       </c>
       <c r="F63">
-        <f>B63*$G$2</f>
+        <f t="shared" si="4"/>
         <v>55577.680029707532</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55578</v>
       </c>
     </row>
@@ -1707,19 +1712,19 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85716730070211233</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>857</v>
       </c>
       <c r="F64">
-        <f>B64*$G$2</f>
+        <f t="shared" si="4"/>
         <v>56175.316218813634</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56175</v>
       </c>
     </row>
@@ -1728,19 +1733,19 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
       <c r="F65">
-        <f>B65*$G$2</f>
+        <f t="shared" si="4"/>
         <v>56755.840862416968</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56756</v>
       </c>
     </row>
@@ -1749,19 +1754,19 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87461970713939574</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>875</v>
       </c>
       <c r="F66">
-        <f>B66*$G$2</f>
+        <f t="shared" si="4"/>
         <v>57319.077127087439</v>
       </c>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57319</v>
       </c>
     </row>
@@ -1770,19 +1775,19 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88294759285892688</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>883</v>
       </c>
       <c r="F67">
-        <f>B67*$G$2</f>
+        <f t="shared" si="4"/>
         <v>57864.853445602632</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57865</v>
       </c>
     </row>
@@ -1791,19 +1796,19 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89100652418836779</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="F68">
-        <f>B68*$G$2</f>
+        <f t="shared" si="4"/>
         <v>58393.003569208871</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58393</v>
       </c>
     </row>
@@ -1812,19 +1817,19 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89879404629916704</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>899</v>
       </c>
       <c r="F69">
-        <f>B69*$G$2</f>
+        <f t="shared" ref="F69:F95" si="6">B69*$G$2</f>
         <v>58903.366618262211</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H95" si="4">ROUND(F69,0)</f>
+        <f t="shared" ref="H69:H95" si="7">ROUND(F69,0)</f>
         <v>58903</v>
       </c>
     </row>
@@ -1833,19 +1838,19 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90630778703664994</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C95" si="5">ROUND(B70*$C$3,0)</f>
+        <f t="shared" ref="C70:C95" si="8">ROUND(B70*$C$3,0)</f>
         <v>906</v>
       </c>
       <c r="F70">
-        <f>B70*$G$2</f>
+        <f t="shared" si="6"/>
         <v>59395.78713123389</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59396</v>
       </c>
     </row>
@@ -1854,19 +1859,19 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91354545764260087</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>914</v>
       </c>
       <c r="F71">
-        <f>B71*$G$2</f>
+        <f t="shared" si="6"/>
         <v>59870.11511206549</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59870</v>
       </c>
     </row>
@@ -1875,19 +1880,19 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92050485345244037</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>921</v>
       </c>
       <c r="F72">
-        <f>B72*$G$2</f>
+        <f t="shared" si="6"/>
         <v>60326.206075859132</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60326</v>
       </c>
     </row>
@@ -1896,19 +1901,19 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B95" si="6">SIN(RADIANS(A73))</f>
+        <f t="shared" ref="B73:B95" si="9">SIN(RADIANS(A73))</f>
         <v>0.92718385456678742</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>927</v>
       </c>
       <c r="F73">
-        <f>B73*$G$2</f>
+        <f t="shared" si="6"/>
         <v>60763.921092888981</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60764</v>
       </c>
     </row>
@@ -1917,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.93358042649720174</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>934</v>
       </c>
       <c r="F74">
-        <f>B74*$G$2</f>
+        <f t="shared" si="6"/>
         <v>61183.126830920613</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>61183</v>
       </c>
     </row>
@@ -1938,19 +1943,19 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>940</v>
       </c>
       <c r="F75">
-        <f>B75*$G$2</f>
+        <f t="shared" si="6"/>
         <v>61583.695595825287</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>61584</v>
       </c>
     </row>
@@ -1959,19 +1964,19 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.94551857559931674</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>946</v>
       </c>
       <c r="F76">
-        <f>B76*$G$2</f>
+        <f t="shared" si="6"/>
         <v>61965.505370476822</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>61966</v>
       </c>
     </row>
@@ -1980,19 +1985,19 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.95105651629515353</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>951</v>
       </c>
       <c r="F77">
-        <f>B77*$G$2</f>
+        <f t="shared" si="6"/>
         <v>62328.439851919182</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>62328</v>
       </c>
     </row>
@@ -2001,19 +2006,19 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.95630475596303544</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>956</v>
       </c>
       <c r="F78">
-        <f>B78*$G$2</f>
+        <f t="shared" si="6"/>
         <v>62672.38848679349</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>62672</v>
       </c>
     </row>
@@ -2022,19 +2027,19 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.96126169593831889</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>961</v>
       </c>
       <c r="F79">
-        <f>B79*$G$2</f>
+        <f t="shared" si="6"/>
         <v>62997.246505013667</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>62997</v>
       </c>
     </row>
@@ -2043,19 +2048,19 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.96592582628906831</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>966</v>
       </c>
       <c r="F80">
-        <f>B80*$G$2</f>
+        <f t="shared" si="6"/>
         <v>63302.914951680381</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63303</v>
       </c>
     </row>
@@ -2064,19 +2069,19 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.97029572627599647</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>970</v>
       </c>
       <c r="F81">
-        <f>B81*$G$2</f>
+        <f t="shared" si="6"/>
         <v>63589.300717223705</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63589</v>
       </c>
     </row>
@@ -2085,19 +2090,19 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.97437006478523525</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>974</v>
       </c>
       <c r="F82">
-        <f>B82*$G$2</f>
+        <f t="shared" si="6"/>
         <v>63856.316565765177</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63856</v>
       </c>
     </row>
@@ -2106,19 +2111,19 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.97814760073380558</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>978</v>
       </c>
       <c r="F83">
-        <f>B83*$G$2</f>
+        <f t="shared" si="6"/>
         <v>64103.881161690682</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64104</v>
       </c>
     </row>
@@ -2127,19 +2132,19 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98162718344766398</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>982</v>
       </c>
       <c r="F84">
-        <f>B84*$G$2</f>
+        <f t="shared" si="6"/>
         <v>64331.919094426106</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64332</v>
       </c>
     </row>
@@ -2148,19 +2153,19 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>985</v>
       </c>
       <c r="F85">
-        <f>B85*$G$2</f>
+        <f t="shared" si="6"/>
         <v>64540.360901408065</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64540</v>
       </c>
     </row>
@@ -2169,19 +2174,19 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98768834059513777</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>988</v>
       </c>
       <c r="F86">
-        <f>B86*$G$2</f>
+        <f t="shared" si="6"/>
         <v>64729.143089242949</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64729</v>
       </c>
     </row>
@@ -2190,19 +2195,19 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99026806874157036</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>990</v>
       </c>
       <c r="F87">
-        <f>B87*$G$2</f>
+        <f t="shared" si="6"/>
         <v>64898.208153047555</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64898</v>
       </c>
     </row>
@@ -2211,19 +2216,19 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99254615164132198</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>993</v>
       </c>
       <c r="F88">
-        <f>B88*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65047.504593965677</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65048</v>
       </c>
     </row>
@@ -2232,19 +2237,19 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99452189536827329</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>995</v>
       </c>
       <c r="F89">
-        <f>B89*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65176.986934855158</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65177</v>
       </c>
     </row>
@@ -2253,19 +2258,19 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>996</v>
       </c>
       <c r="F90">
-        <f>B90*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65286.615734140636</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65287</v>
       </c>
     </row>
@@ -2274,19 +2279,19 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.9975640502598242</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>998</v>
       </c>
       <c r="F91">
-        <f>B91*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65376.357597827839</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65376</v>
       </c>
     </row>
@@ -2295,19 +2300,19 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99862953475457383</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>999</v>
       </c>
       <c r="F92">
-        <f>B92*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65446.185189675751</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65446</v>
       </c>
     </row>
@@ -2316,19 +2321,19 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99939082701909576</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>999</v>
       </c>
       <c r="F93">
-        <f>B93*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65496.07723952346</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65496</v>
       </c>
     </row>
@@ -2337,19 +2342,19 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99984769515639127</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="F94">
-        <f>B94*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65526.018549769258</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65526</v>
       </c>
     </row>
@@ -2358,23 +2363,26 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="F95">
-        <f>B95*$G$2</f>
+        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
